--- a/medicine/Enfance/Rachel_Corenblit/Rachel_Corenblit.xlsx
+++ b/medicine/Enfance/Rachel_Corenblit/Rachel_Corenblit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Corenblit est une romancière française d'origine québécoise née le 27 décembre 1969 à Chicoutimi.
-Après des études de philosophie et diverses activités professionnelles en milieu scolaire et en médiathèque, elle se tourne vers l'enseignement en 1997[1]. Professeur de lettres résidant à Toulouse, elle est autrice principalement de littérature jeunesse avec à son actif, 37 livres publiés[2],[1].
+Après des études de philosophie et diverses activités professionnelles en milieu scolaire et en médiathèque, elle se tourne vers l'enseignement en 1997. Professeur de lettres résidant à Toulouse, elle est autrice principalement de littérature jeunesse avec à son actif, 37 livres publiés,.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans ses romans, elle aborde notamment la question de l'acceptation de soi, de la différence, de la maladie. Elle trouve ses sources d'inspiration dans le théâtre, les différents métiers qu'elle a exercés et la vie quotidienne.
 Dans sa pièce Le prince Hip de réalité, elle aborde la question de la solitude d'une petite fille qui se mure dans son silence.
 L'ambivalence des sentiments dans les relations fraternelles est décrite dans L'aîné de mes soucis.
 L'amour vache donne à voir, à travers huit histoires, les pensées et les sentiments de différents personnages, sur un ton acide, truculent ou émouvant, à propos de leur vie.
 Dix-huit baisers plus un, dévoile le regard de dix-sept personnages féminins sur Alex, un jeune homme qu'on a retrouvé au fond d'un cagibi, après sa tentative de suicide ratée.
-Les thèmes de la différence et de la maladie réunissent Chaïma et Camille, les deux héroïnes de Shalom Salam maintenant. Dans son premier roman, l'auteur raconte la rencontre des deux fillettes dans un hôpital de Toulouse sur fond de conflit israélo-palestinien[3].
+Les thèmes de la différence et de la maladie réunissent Chaïma et Camille, les deux héroïnes de Shalom Salam maintenant. Dans son premier roman, l'auteur raconte la rencontre des deux fillettes dans un hôpital de Toulouse sur fond de conflit israélo-palestinien.
 Dans Ceux qui n'aiment pas lire, l'auteur dédramatise de façon humoristique le désarroi qui s'empare des parents face aux bambins pour qui la lecture est loin d'être un centre d'intérêt, voire, une ennemie.
 L'amour filial est le thème principal du roman Le métier de papa : on y rencontre Paolo, un petit garçon dont le père est en prison. Grâce à son amie Magnolia, nommée ainsi en référence à son père qui est le sosie de Claude François et qui gagne sa vie grâce à cela, il réapprendra à aimer ce père qui l'a tant déçu.
 Avec Un petit bout d'enfer, l'auteur plonge le lecteur dans une ambiance proche du polar avec l'histoire d'un homme de cinquante ans qui disjoncte et enlève une jeune fille de quatorze ans.
